--- a/data/trans_orig/P36B08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>11754</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5956</v>
+        <v>5889</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20182</v>
+        <v>19632</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01693665188012913</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008582634845297782</v>
+        <v>0.008486061148262369</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02907969019106303</v>
+        <v>0.02828798589770295</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -764,19 +764,19 @@
         <v>2807</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7684</v>
+        <v>7377</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004077171021708309</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001271184374042771</v>
+        <v>0.001267422731840353</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01116316268948313</v>
+        <v>0.01071670969269152</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -785,19 +785,19 @@
         <v>14561</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8721</v>
+        <v>8597</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24104</v>
+        <v>23256</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01053324272546585</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006308489820063962</v>
+        <v>0.006219287270601853</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01743672029858359</v>
+        <v>0.01682347064862841</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>24160</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15590</v>
+        <v>15891</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34363</v>
+        <v>34837</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03481162061972552</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02246415459984278</v>
+        <v>0.02289667916166725</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04951333932446523</v>
+        <v>0.05019664754581992</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -835,19 +835,19 @@
         <v>24155</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16186</v>
+        <v>16605</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34539</v>
+        <v>34886</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03509133270952939</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02351389548208589</v>
+        <v>0.02412352049034795</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05017708015350938</v>
+        <v>0.05068082196728714</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>51</v>
@@ -856,19 +856,19 @@
         <v>48315</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36090</v>
+        <v>36806</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62355</v>
+        <v>62690</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03495090392176856</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02610713173526217</v>
+        <v>0.02662506777729786</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04510733039752963</v>
+        <v>0.04534977839123094</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>155764</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>135220</v>
+        <v>132820</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>178057</v>
+        <v>177308</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2244396672120013</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1948385151272499</v>
+        <v>0.1913798416628013</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2565625572279738</v>
+        <v>0.2554821546035768</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>130</v>
@@ -906,19 +906,19 @@
         <v>125432</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>105999</v>
+        <v>107859</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>145341</v>
+        <v>145906</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1822213225508926</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1539898998949361</v>
+        <v>0.1566922880251314</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2111444048741966</v>
+        <v>0.2119647110724242</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>282</v>
@@ -927,19 +927,19 @@
         <v>281196</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>253211</v>
+        <v>253343</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>311254</v>
+        <v>312652</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2034169418256461</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1831728345852686</v>
+        <v>0.1832677176659005</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2251609716817761</v>
+        <v>0.2261718057935339</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>350012</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>321373</v>
+        <v>326062</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>375178</v>
+        <v>376881</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5043319002958053</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4630654809426134</v>
+        <v>0.4698223787179359</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5405929907969332</v>
+        <v>0.5430469699459457</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>334</v>
@@ -977,19 +977,19 @@
         <v>330764</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>305760</v>
+        <v>305958</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>356897</v>
+        <v>354434</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4805164046807969</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4441913565888547</v>
+        <v>0.4444795762184592</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5184816431039995</v>
+        <v>0.5149026236660355</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>678</v>
@@ -998,19 +998,19 @@
         <v>680776</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>648559</v>
+        <v>639784</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>721642</v>
+        <v>717307</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.492472917470373</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4691670833296879</v>
+        <v>0.4628192014116292</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5220350557926684</v>
+        <v>0.5188991498222942</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>152322</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>132146</v>
+        <v>130784</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>173260</v>
+        <v>175478</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2194801599923387</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1904083424172178</v>
+        <v>0.1884469095276192</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2496495962463849</v>
+        <v>0.2528451211909487</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>203</v>
@@ -1048,19 +1048,19 @@
         <v>205193</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>182619</v>
+        <v>182211</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>230224</v>
+        <v>228459</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2980937690370729</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2652996275429054</v>
+        <v>0.2647068193810556</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3344566190277409</v>
+        <v>0.331893648766008</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>352</v>
@@ -1069,19 +1069,19 @@
         <v>357515</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>323891</v>
+        <v>326312</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>388226</v>
+        <v>392955</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2586259940567465</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2343025454470851</v>
+        <v>0.2360540043876634</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2808423515057772</v>
+        <v>0.2842630425857933</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>16583</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9997</v>
+        <v>9372</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29091</v>
+        <v>26178</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01724195816673419</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01039357386628776</v>
+        <v>0.009744264176258753</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03024670801713503</v>
+        <v>0.02721750550068228</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1194,19 +1194,19 @@
         <v>16219</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9286</v>
+        <v>9033</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27410</v>
+        <v>25941</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01676623469984949</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009599832067186651</v>
+        <v>0.009338135596327493</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02833579091758687</v>
+        <v>0.02681708773690712</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -1215,19 +1215,19 @@
         <v>32802</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22450</v>
+        <v>22270</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46160</v>
+        <v>44790</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0170034142005286</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0116371374061579</v>
+        <v>0.01154380463428355</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02392803529220243</v>
+        <v>0.02321760009312262</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>72822</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>58106</v>
+        <v>56970</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>92653</v>
+        <v>91066</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07571422829073809</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06041329661411884</v>
+        <v>0.05923268319300721</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09633336062184515</v>
+        <v>0.09468316675873774</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>37</v>
@@ -1265,19 +1265,19 @@
         <v>39796</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>28531</v>
+        <v>29300</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>53664</v>
+        <v>54900</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04113989417538148</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02949449770587369</v>
+        <v>0.03028927249805868</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05547602505263685</v>
+        <v>0.05675359212108383</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>103</v>
@@ -1286,19 +1286,19 @@
         <v>112618</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>93166</v>
+        <v>91349</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>135430</v>
+        <v>133643</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05837747834480112</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04829403345466807</v>
+        <v>0.04735228575933265</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0702027528381881</v>
+        <v>0.06927624798488112</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>274507</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>246015</v>
+        <v>242433</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>305634</v>
+        <v>301366</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2854097563836953</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2557863640786498</v>
+        <v>0.252061525530075</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3177734209711045</v>
+        <v>0.3133353142117217</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>235</v>
@@ -1336,19 +1336,19 @@
         <v>246176</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>217749</v>
+        <v>216674</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>274042</v>
+        <v>273097</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.254489519327448</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2251023444685034</v>
+        <v>0.223990605052782</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2832965331741962</v>
+        <v>0.282320008877146</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>492</v>
@@ -1357,19 +1357,19 @@
         <v>520683</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>481627</v>
+        <v>480260</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>560502</v>
+        <v>559155</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2699052952905413</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.249660050764385</v>
+        <v>0.2489513794303689</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2905458227527978</v>
+        <v>0.289847783826718</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>390969</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>359070</v>
+        <v>360789</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>420894</v>
+        <v>421517</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4064974711212554</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.373331639392214</v>
+        <v>0.3751184559435073</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4376106689154986</v>
+        <v>0.4382587193821275</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>379</v>
@@ -1407,19 +1407,19 @@
         <v>400687</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>363942</v>
+        <v>366314</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>430909</v>
+        <v>431890</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4142181122037399</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3762328942672927</v>
+        <v>0.3786849490958423</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4454613113042669</v>
+        <v>0.4464749230976356</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>744</v>
@@ -1428,19 +1428,19 @@
         <v>791656</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>748982</v>
+        <v>748566</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>835790</v>
+        <v>834699</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4103688637971858</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3882481771663869</v>
+        <v>0.3880321982538849</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4332463522400156</v>
+        <v>0.4326806785661707</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>206918</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>182168</v>
+        <v>182372</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>234197</v>
+        <v>232826</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.215136586037577</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1894036245700469</v>
+        <v>0.1896156221873182</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2434990050575738</v>
+        <v>0.2420729790114793</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>241</v>
@@ -1478,19 +1478,19 @@
         <v>264456</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>239223</v>
+        <v>236655</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>296829</v>
+        <v>294229</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2733862395935811</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2473021163698055</v>
+        <v>0.2446470697171521</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.306852758661301</v>
+        <v>0.3041656644731355</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>434</v>
@@ -1499,19 +1499,19 @@
         <v>471374</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>432288</v>
+        <v>436319</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>508781</v>
+        <v>514251</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2443449483669432</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2240841485525459</v>
+        <v>0.2261736293034212</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2637355271113614</v>
+        <v>0.2665707912282633</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>22726</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14323</v>
+        <v>13577</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34252</v>
+        <v>33263</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03349397555419958</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02110945673458018</v>
+        <v>0.02001028226340578</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05048170558658665</v>
+        <v>0.04902400517281844</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1624,19 +1624,19 @@
         <v>9776</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5523</v>
+        <v>4744</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17428</v>
+        <v>17174</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01429549737271079</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008076823340532384</v>
+        <v>0.006936963909399976</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02548556743654765</v>
+        <v>0.02511407341711589</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -1645,19 +1645,19 @@
         <v>32502</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21713</v>
+        <v>22898</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45834</v>
+        <v>44765</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02385716586266682</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01593819063883188</v>
+        <v>0.01680750064659179</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03364336133417995</v>
+        <v>0.03285880676627408</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>53436</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>40423</v>
+        <v>42059</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>67970</v>
+        <v>69742</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07875563188138253</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05957683172677288</v>
+        <v>0.06198774226527159</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1001759258016249</v>
+        <v>0.1027871728183824</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>37</v>
@@ -1695,19 +1695,19 @@
         <v>36590</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25219</v>
+        <v>26986</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50920</v>
+        <v>49733</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05350710208046045</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0368778169266175</v>
+        <v>0.0394617455748253</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07446111943824719</v>
+        <v>0.07272569480671111</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>89</v>
@@ -1716,19 +1716,19 @@
         <v>90027</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>74439</v>
+        <v>72176</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>109695</v>
+        <v>109418</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06608195668784116</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05464038520733972</v>
+        <v>0.05297928121414493</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08051878069427321</v>
+        <v>0.08031585863356831</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>209267</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>184867</v>
+        <v>185535</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>233219</v>
+        <v>235669</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3084225666053231</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2724609029539276</v>
+        <v>0.2734456658063246</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3437229766826966</v>
+        <v>0.3473337597115459</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>159</v>
@@ -1766,19 +1766,19 @@
         <v>155032</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>135346</v>
+        <v>134409</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>177223</v>
+        <v>177343</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2267077563349016</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1979199250204304</v>
+        <v>0.1965507486070754</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2591588902367897</v>
+        <v>0.2593329944502286</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>356</v>
@@ -1787,19 +1787,19 @@
         <v>364300</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>331569</v>
+        <v>329692</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>399056</v>
+        <v>397891</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.267405249080904</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.243380027544993</v>
+        <v>0.2420024717295315</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2929174788465225</v>
+        <v>0.2920625213672193</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>251064</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>225229</v>
+        <v>224158</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>278953</v>
+        <v>278269</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3700233952612283</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.331947356753823</v>
+        <v>0.3303679075495392</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4111259889978134</v>
+        <v>0.4101180064693721</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>278</v>
@@ -1837,19 +1837,19 @@
         <v>278017</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>254313</v>
+        <v>251995</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>303138</v>
+        <v>303373</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.40655144926965</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.371889236594762</v>
+        <v>0.3684999148715963</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4432873775490042</v>
+        <v>0.4436310355960243</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>515</v>
@@ -1858,19 +1858,19 @@
         <v>529081</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>489770</v>
+        <v>493283</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>564577</v>
+        <v>564311</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3883589061050307</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3595039591033521</v>
+        <v>0.3620821201700772</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.414414182448365</v>
+        <v>0.4142191734194923</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>142015</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>121804</v>
+        <v>119748</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>165945</v>
+        <v>163495</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2093044306978664</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1795169793806075</v>
+        <v>0.1764876471481413</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2445723832887005</v>
+        <v>0.2409618753372275</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>212</v>
@@ -1908,19 +1908,19 @@
         <v>204426</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>181754</v>
+        <v>180840</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>227247</v>
+        <v>228838</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2989381949422771</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2657833971542491</v>
+        <v>0.2644481221061702</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3323100756963894</v>
+        <v>0.3346364889795237</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>346</v>
@@ -1929,19 +1929,19 @@
         <v>346441</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>314467</v>
+        <v>314870</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>378246</v>
+        <v>377350</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2542967222635574</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.230826896828622</v>
+        <v>0.2311227697699342</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2776420085988267</v>
+        <v>0.2769843646810905</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>21813</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14474</v>
+        <v>14107</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31878</v>
+        <v>30678</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0231711965832368</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01537480686256689</v>
+        <v>0.01498481945834302</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03386294339603334</v>
+        <v>0.03258846311928233</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2054,19 +2054,19 @@
         <v>12775</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6938</v>
+        <v>6903</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21778</v>
+        <v>20673</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01229999496558738</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006680483617197348</v>
+        <v>0.006646302433811652</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02096880531293402</v>
+        <v>0.01990464991971375</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -2075,19 +2075,19 @@
         <v>34588</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24745</v>
+        <v>24467</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48095</v>
+        <v>47188</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01746869139833167</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01249754268797047</v>
+        <v>0.01235701983722876</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02429030298233011</v>
+        <v>0.02383212715581468</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>77319</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>61351</v>
+        <v>60787</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>94923</v>
+        <v>95378</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0821333015153136</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06517078683216455</v>
+        <v>0.06457121331980324</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1008331125686264</v>
+        <v>0.1013160287466546</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>43</v>
@@ -2125,19 +2125,19 @@
         <v>46016</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>33535</v>
+        <v>33480</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>61770</v>
+        <v>60412</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0443054542678728</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03228832641434104</v>
+        <v>0.03223541313916705</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05947347137423055</v>
+        <v>0.0581665677890306</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>124</v>
@@ -2146,19 +2146,19 @@
         <v>123335</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>101633</v>
+        <v>103825</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>148416</v>
+        <v>145309</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06229064725783766</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05132965737219614</v>
+        <v>0.05243699628735627</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0749578096203279</v>
+        <v>0.07338848301394237</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>264426</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>239887</v>
+        <v>239325</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>294336</v>
+        <v>291436</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2808893925954228</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2548226508354576</v>
+        <v>0.254225914163376</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.312661973477777</v>
+        <v>0.3095811263953859</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>256</v>
@@ -2196,19 +2196,19 @@
         <v>261793</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>234495</v>
+        <v>233152</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>289489</v>
+        <v>288175</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2520602898374113</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2257774212191123</v>
+        <v>0.2244838185333136</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2787267208739425</v>
+        <v>0.2774615794125199</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>535</v>
@@ -2217,19 +2217,19 @@
         <v>526219</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>488234</v>
+        <v>488882</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>565472</v>
+        <v>565465</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2657670433155766</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2465830016259045</v>
+        <v>0.2469099795813008</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2855918087193976</v>
+        <v>0.2855882773103686</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>392383</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>361981</v>
+        <v>363501</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>422127</v>
+        <v>421148</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4168136409475058</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3845181761114832</v>
+        <v>0.3861328595155591</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4484087612961745</v>
+        <v>0.4473690967766491</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>433</v>
@@ -2267,19 +2267,19 @@
         <v>450741</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>420388</v>
+        <v>417226</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>483503</v>
+        <v>483224</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4339836961550366</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4047598901262559</v>
+        <v>0.4017148797121688</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4655281617472453</v>
+        <v>0.4652592004876448</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>846</v>
@@ -2288,19 +2288,19 @@
         <v>843124</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>798343</v>
+        <v>800906</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>883340</v>
+        <v>888775</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4258202192715699</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4032034761547394</v>
+        <v>0.4044979837856173</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4461313729003276</v>
+        <v>0.4488764689839005</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>185446</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>162002</v>
+        <v>162852</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>211018</v>
+        <v>211491</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.196992468358521</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1720889620031422</v>
+        <v>0.1729915530825501</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2241565546176454</v>
+        <v>0.224658448929198</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>252</v>
@@ -2338,19 +2338,19 @@
         <v>267287</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>239561</v>
+        <v>239179</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>294671</v>
+        <v>294608</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2573505647740919</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.23065450206454</v>
+        <v>0.2302870200374913</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2837160122571076</v>
+        <v>0.2836552682673885</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>447</v>
@@ -2359,19 +2359,19 @@
         <v>452734</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>416718</v>
+        <v>414667</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>489721</v>
+        <v>488160</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2286533987566842</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2104635422585993</v>
+        <v>0.2094277258586824</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2473337086336691</v>
+        <v>0.2465452572509199</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>72877</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>57388</v>
+        <v>57058</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>91830</v>
+        <v>90849</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02224758188668367</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01751937327724724</v>
+        <v>0.01741866342211635</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02803366066549823</v>
+        <v>0.02773423531789415</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>41</v>
@@ -2484,19 +2484,19 @@
         <v>41576</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>30512</v>
+        <v>30379</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>55415</v>
+        <v>57182</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01230732420657574</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0090322567068701</v>
+        <v>0.008992883038614083</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01640391561454857</v>
+        <v>0.01692702326660054</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>115</v>
@@ -2505,19 +2505,19 @@
         <v>114452</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>92428</v>
+        <v>94452</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>135847</v>
+        <v>134877</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01720094377874818</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01389083863412923</v>
+        <v>0.01419510234584898</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02041631669812656</v>
+        <v>0.02027057963323004</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>227737</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>201802</v>
+        <v>201239</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>257842</v>
+        <v>257855</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06952306609342807</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06160556891666689</v>
+        <v>0.06143376083134019</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07871342143293031</v>
+        <v>0.07871742106184386</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>143</v>
@@ -2555,19 +2555,19 @@
         <v>146558</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>124013</v>
+        <v>122715</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>172687</v>
+        <v>169042</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04338416658841816</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03671036456833505</v>
+        <v>0.03632615217810829</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05111895993243583</v>
+        <v>0.05004015338444891</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>367</v>
@@ -2576,19 +2576,19 @@
         <v>374295</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>335073</v>
+        <v>341554</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>413261</v>
+        <v>413717</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05625242758619303</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05035784867796158</v>
+        <v>0.05133174000452867</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06210858855591012</v>
+        <v>0.06217716048490731</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>903964</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>855846</v>
+        <v>850740</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>955460</v>
+        <v>953208</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2759598947438901</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2612703604668042</v>
+        <v>0.259711628170563</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2916804788581751</v>
+        <v>0.290992802895282</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>780</v>
@@ -2626,19 +2626,19 @@
         <v>788433</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>737195</v>
+        <v>741173</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>837713</v>
+        <v>836185</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2333929152320065</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2182252385607393</v>
+        <v>0.2194027696530869</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2479808690434957</v>
+        <v>0.2475283617997255</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1665</v>
@@ -2647,19 +2647,19 @@
         <v>1692398</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1624858</v>
+        <v>1620670</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1767591</v>
+        <v>1758087</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2543487707813523</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2441982682669872</v>
+        <v>0.2435688181775571</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2656494061193888</v>
+        <v>0.2642211993156313</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>1384429</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1333699</v>
+        <v>1330762</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1442273</v>
+        <v>1445909</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.422634987314263</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4071480844351833</v>
+        <v>0.4062514777558484</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4402932889728612</v>
+        <v>0.4414035002830224</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1424</v>
@@ -2697,19 +2697,19 @@
         <v>1460208</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1404558</v>
+        <v>1395700</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1519051</v>
+        <v>1512589</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4322524563775726</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4157788934013643</v>
+        <v>0.4131566988535063</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4496713267678598</v>
+        <v>0.4477582278075399</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2783</v>
@@ -2718,19 +2718,19 @@
         <v>2844638</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2764469</v>
+        <v>2761294</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2917745</v>
+        <v>2924166</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4275177466388947</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4154693149428271</v>
+        <v>0.4149920450093524</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4385050094211628</v>
+        <v>0.4394699334132656</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>686702</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>640876</v>
+        <v>638256</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>730244</v>
+        <v>731651</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2096344699617352</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1956448754905807</v>
+        <v>0.1948450601177918</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2229271383563823</v>
+        <v>0.2233566821408272</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>908</v>
@@ -2768,19 +2768,19 @@
         <v>941362</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>884049</v>
+        <v>888893</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>992730</v>
+        <v>996748</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.278663137595427</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.261697149029724</v>
+        <v>0.2631312348683095</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2938691156839452</v>
+        <v>0.2950584840643686</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1579</v>
@@ -2789,19 +2789,19 @@
         <v>1628064</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1555063</v>
+        <v>1564830</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1703703</v>
+        <v>1702685</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2446801112148118</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2337088436282282</v>
+        <v>0.2351767549647407</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2560478895813975</v>
+        <v>0.2558947600376924</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>6726</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2888</v>
+        <v>2901</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12945</v>
+        <v>12852</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009575405166911126</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004111723862011023</v>
+        <v>0.004130639130044501</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01842944578939401</v>
+        <v>0.01829739969389099</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -3154,19 +3154,19 @@
         <v>7321</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3059</v>
+        <v>2952</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13788</v>
+        <v>14912</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01050269144871722</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004387784105450884</v>
+        <v>0.004235107408673117</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01977984525946482</v>
+        <v>0.02139355797920489</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -3175,19 +3175,19 @@
         <v>14047</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8177</v>
+        <v>8002</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23788</v>
+        <v>23780</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01003727636618417</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005842760558093116</v>
+        <v>0.005718225569749734</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01699801359725998</v>
+        <v>0.01699244483097224</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>27500</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18515</v>
+        <v>17991</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39098</v>
+        <v>37970</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03915228525210733</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02635988933096397</v>
+        <v>0.02561341791681488</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05566306651643788</v>
+        <v>0.05405706345226285</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -3225,19 +3225,19 @@
         <v>16842</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9737</v>
+        <v>10746</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25193</v>
+        <v>26160</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02416135402619405</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01396914358183933</v>
+        <v>0.01541568591419884</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03614170525686642</v>
+        <v>0.03752901052367644</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -3246,19 +3246,19 @@
         <v>44342</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33274</v>
+        <v>31981</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>60159</v>
+        <v>58601</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03168546565239699</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02377616222198656</v>
+        <v>0.02285279778587919</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04298762770434234</v>
+        <v>0.04187437299856593</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>136988</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>115928</v>
+        <v>118587</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>159715</v>
+        <v>158770</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1950293767882398</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1650456470774062</v>
+        <v>0.1688315113299066</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2273852497673128</v>
+        <v>0.2260403895632598</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>90</v>
@@ -3296,19 +3296,19 @@
         <v>96859</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>79475</v>
+        <v>78896</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>115649</v>
+        <v>118763</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1389549673974303</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.114016882425409</v>
+        <v>0.1131860036430295</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.165911753636188</v>
+        <v>0.1703789573183007</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>221</v>
@@ -3317,19 +3317,19 @@
         <v>233847</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>207115</v>
+        <v>205909</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>262681</v>
+        <v>264762</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1670993240936001</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1479976068321264</v>
+        <v>0.147136094163577</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1877032879612508</v>
+        <v>0.1891900258527462</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>241613</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>216638</v>
+        <v>215652</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>267289</v>
+        <v>266390</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3439832340455075</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3084265235230402</v>
+        <v>0.3070228446194995</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3805371448127658</v>
+        <v>0.3792575536868879</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>233</v>
@@ -3367,19 +3367,19 @@
         <v>247685</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>223768</v>
+        <v>223352</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>272931</v>
+        <v>275018</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3553334810150898</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3210211841506154</v>
+        <v>0.3204248282994733</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3915515476967982</v>
+        <v>0.3945456236421838</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>462</v>
@@ -3388,19 +3388,19 @@
         <v>489298</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>455036</v>
+        <v>453448</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>526160</v>
+        <v>525703</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3496366684624122</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.325153737598359</v>
+        <v>0.3240192591502165</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3759769703371096</v>
+        <v>0.3756503928864263</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>289570</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>263626</v>
+        <v>262707</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>314633</v>
+        <v>315228</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4122596987472342</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3753232741399034</v>
+        <v>0.3740141803603146</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4479418930957528</v>
+        <v>0.4487883959003538</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>303</v>
@@ -3438,19 +3438,19 @@
         <v>328344</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>303388</v>
+        <v>298938</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>354897</v>
+        <v>356269</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4710475061125686</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4352455030042348</v>
+        <v>0.4288612611660952</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5091410510430308</v>
+        <v>0.5111097748948422</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>582</v>
@@ -3459,19 +3459,19 @@
         <v>617914</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>578084</v>
+        <v>579416</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>656388</v>
+        <v>654121</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4415412654254065</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4130799366417715</v>
+        <v>0.4140315823967636</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4690336329012165</v>
+        <v>0.467413777269663</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>15400</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8851</v>
+        <v>8264</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26716</v>
+        <v>26426</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01518936339346112</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00872941302220721</v>
+        <v>0.008150789836758029</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02634938790963408</v>
+        <v>0.02606334037972996</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -3584,19 +3584,19 @@
         <v>8279</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3625</v>
+        <v>3879</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17049</v>
+        <v>17107</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008045182693981964</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003522685148135295</v>
+        <v>0.003769729526049513</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01656708690393866</v>
+        <v>0.01662337965454566</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -3605,19 +3605,19 @@
         <v>23680</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15486</v>
+        <v>14976</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37545</v>
+        <v>36061</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01159069095597091</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007580026464987239</v>
+        <v>0.007330293061581123</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0183774048560403</v>
+        <v>0.01765083393216475</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>52678</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>39134</v>
+        <v>40020</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>69884</v>
+        <v>68307</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05195579818622276</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03859719578914195</v>
+        <v>0.03947184498055836</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06892577484095706</v>
+        <v>0.06737033298130414</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>37</v>
@@ -3655,19 +3655,19 @@
         <v>41174</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29533</v>
+        <v>28494</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55982</v>
+        <v>55784</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04000989115432101</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02869800228984042</v>
+        <v>0.02768843082970059</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05439945644938107</v>
+        <v>0.0542063990826736</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>85</v>
@@ -3676,19 +3676,19 @@
         <v>93852</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>76871</v>
+        <v>75376</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>116307</v>
+        <v>114308</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04593839630560412</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03762665252277104</v>
+        <v>0.03689487099155685</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05692967019127446</v>
+        <v>0.05595100252558923</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>228971</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>200838</v>
+        <v>201536</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>254989</v>
+        <v>254926</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2258325937698979</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1980855961592687</v>
+        <v>0.1987742731140593</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.25149401700238</v>
+        <v>0.2514317561073131</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>168</v>
@@ -3726,19 +3726,19 @@
         <v>184024</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>159438</v>
+        <v>159474</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>210020</v>
+        <v>212299</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1788205851835274</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.154929457335319</v>
+        <v>0.1549646338600822</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2040818740895547</v>
+        <v>0.2062962691650554</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>383</v>
@@ -3747,19 +3747,19 @@
         <v>412995</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>380748</v>
+        <v>376206</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>454030</v>
+        <v>447630</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2021516670622128</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1863675030260436</v>
+        <v>0.1841444722888706</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2222375004610468</v>
+        <v>0.2191047467032693</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>371337</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>340808</v>
+        <v>341164</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>403759</v>
+        <v>404063</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3662477113242536</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3361371773833653</v>
+        <v>0.336488434780886</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3982247702346179</v>
+        <v>0.3985254459108662</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>303</v>
@@ -3797,19 +3797,19 @@
         <v>334072</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>302988</v>
+        <v>304563</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>365514</v>
+        <v>368209</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3246253108890318</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2944203077794892</v>
+        <v>0.295951535916636</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3551787510726274</v>
+        <v>0.3577972254086171</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>637</v>
@@ -3818,19 +3818,19 @@
         <v>705409</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>653651</v>
+        <v>663406</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>745220</v>
+        <v>747937</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3452816423613936</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3199471904511988</v>
+        <v>0.3247222740441922</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3647684517411985</v>
+        <v>0.3660983875843073</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>345510</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>313559</v>
+        <v>316154</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>375860</v>
+        <v>378116</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3407745333261645</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3092614003431202</v>
+        <v>0.3118212953134478</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3707082884623453</v>
+        <v>0.3729340758620777</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>423</v>
@@ -3868,19 +3868,19 @@
         <v>461550</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>431187</v>
+        <v>429714</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>497435</v>
+        <v>496541</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4484990300791378</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.418994541230148</v>
+        <v>0.4175637939845551</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4833694283044321</v>
+        <v>0.4825004646678855</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>744</v>
@@ -3889,19 +3889,19 @@
         <v>807060</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>766824</v>
+        <v>761558</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>855709</v>
+        <v>856626</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3950376033148185</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3753428388782857</v>
+        <v>0.3727653135995733</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4188501260066293</v>
+        <v>0.419299096096782</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>18298</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11393</v>
+        <v>11310</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28124</v>
+        <v>28028</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.024218741973759</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01507911485634978</v>
+        <v>0.01496911401547048</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03722324620957011</v>
+        <v>0.03709609240100725</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -4014,19 +4014,19 @@
         <v>9940</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4927</v>
+        <v>5010</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17039</v>
+        <v>17466</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01280726577844268</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006347764829341645</v>
+        <v>0.006455023290473818</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02195433495837976</v>
+        <v>0.02250395648622712</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -4035,19 +4035,19 @@
         <v>28238</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19217</v>
+        <v>19567</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40109</v>
+        <v>41014</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0184363553990524</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01254679266103078</v>
+        <v>0.01277497943756651</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02618696796054232</v>
+        <v>0.02677741873887334</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>31852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22428</v>
+        <v>22224</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45430</v>
+        <v>46559</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04215785877807919</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02968419452865616</v>
+        <v>0.02941521980898119</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06012972012260002</v>
+        <v>0.06162334467981764</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -4085,19 +4085,19 @@
         <v>18600</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11644</v>
+        <v>10774</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29978</v>
+        <v>29094</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02396540766222607</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01500310991444072</v>
+        <v>0.01388236293777094</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03862577447433221</v>
+        <v>0.03748689954762019</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>48</v>
@@ -4106,19 +4106,19 @@
         <v>50452</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38250</v>
+        <v>38252</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68551</v>
+        <v>67079</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03293943836578483</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02497335578179321</v>
+        <v>0.02497467113651449</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04475621571221623</v>
+        <v>0.04379526129652661</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>206104</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>180325</v>
+        <v>178114</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>234477</v>
+        <v>232267</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2727905265248701</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2386705060340059</v>
+        <v>0.2357440096055448</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3103441747309362</v>
+        <v>0.3074187444805048</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>157</v>
@@ -4156,19 +4156,19 @@
         <v>168820</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>145909</v>
+        <v>148299</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>193703</v>
+        <v>197656</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.21751954000027</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1879990815403561</v>
+        <v>0.1910794744667032</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2495805796474438</v>
+        <v>0.2546741315207653</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>348</v>
@@ -4177,19 +4177,19 @@
         <v>374923</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>340287</v>
+        <v>344903</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>411278</v>
+        <v>412183</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2447837897118177</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2221699629544498</v>
+        <v>0.2251839504945957</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2685191759906586</v>
+        <v>0.2691104156869984</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>292942</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>262686</v>
+        <v>264148</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>321138</v>
+        <v>319395</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3877266600722993</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3476813166316028</v>
+        <v>0.3496157658641723</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4250458241611368</v>
+        <v>0.4227387006344511</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>283</v>
@@ -4227,19 +4227,19 @@
         <v>312054</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>283992</v>
+        <v>284291</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>339954</v>
+        <v>339752</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4020731157600738</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3659159769054382</v>
+        <v>0.3663013456018417</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4380208991021985</v>
+        <v>0.4377612334372623</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>542</v>
@@ -4248,19 +4248,19 @@
         <v>604996</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>561350</v>
+        <v>562682</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>642954</v>
+        <v>643491</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3949962500310164</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3665001132744637</v>
+        <v>0.3673699053977157</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4197786572299466</v>
+        <v>0.4201288148465169</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>206342</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>184204</v>
+        <v>182468</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234607</v>
+        <v>233261</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2731062126509923</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.243804743395106</v>
+        <v>0.2415067561994763</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3105170131691055</v>
+        <v>0.3087349151525222</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>237</v>
@@ -4298,19 +4298,19 @@
         <v>266699</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>239328</v>
+        <v>239546</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>296879</v>
+        <v>294813</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3436346707989875</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3083673945289334</v>
+        <v>0.3086489769762942</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3825200703851618</v>
+        <v>0.3798578806359209</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>424</v>
@@ -4319,19 +4319,19 @@
         <v>473041</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>437767</v>
+        <v>433204</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>511727</v>
+        <v>509227</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3088441664923287</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2858140544611343</v>
+        <v>0.2828344064158707</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3341016300126842</v>
+        <v>0.3324694935542483</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>15182</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8744</v>
+        <v>8253</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25341</v>
+        <v>24313</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01601953532656161</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009226482698630464</v>
+        <v>0.008707578401340524</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02673857756167633</v>
+        <v>0.02565374031941271</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -4444,19 +4444,19 @@
         <v>10911</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5760</v>
+        <v>5931</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18806</v>
+        <v>19215</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01042879605415686</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005505510197435611</v>
+        <v>0.005668948368540783</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0179753587619901</v>
+        <v>0.01836573672064143</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -4465,19 +4465,19 @@
         <v>26093</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17152</v>
+        <v>16757</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39779</v>
+        <v>36935</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01308611099781093</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00860176336476587</v>
+        <v>0.008403857925727953</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01994970621221196</v>
+        <v>0.01852350647703987</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>36693</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>25013</v>
+        <v>26401</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>49325</v>
+        <v>49704</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03871672253400776</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02639200737723628</v>
+        <v>0.02785650474985324</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0520453310807836</v>
+        <v>0.05244486133406957</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>26</v>
@@ -4515,19 +4515,19 @@
         <v>27341</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>18101</v>
+        <v>18546</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>39437</v>
+        <v>39632</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02613330971588573</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01730158203094692</v>
+        <v>0.01772647064506198</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03769447874851898</v>
+        <v>0.03788139989684244</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>63</v>
@@ -4536,19 +4536,19 @@
         <v>64034</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>49171</v>
+        <v>48875</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>82108</v>
+        <v>79774</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03211428813296385</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02465995644467434</v>
+        <v>0.02451164813312255</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04117850344002359</v>
+        <v>0.04000787714558621</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>209887</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>185378</v>
+        <v>184963</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>236400</v>
+        <v>239245</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2214611866789679</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.195599868758377</v>
+        <v>0.195162375148862</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2494354486403147</v>
+        <v>0.2524377259383521</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>130</v>
@@ -4586,19 +4586,19 @@
         <v>135330</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>114117</v>
+        <v>114463</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>159559</v>
+        <v>161771</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1293518127626755</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1090755998165983</v>
+        <v>0.1094066271684935</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1525105845341902</v>
+        <v>0.1546245689413039</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>335</v>
@@ -4607,19 +4607,19 @@
         <v>345217</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>311524</v>
+        <v>313267</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>379482</v>
+        <v>386341</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1731320006470416</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1562345334913467</v>
+        <v>0.1571083510816792</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1903160953366449</v>
+        <v>0.1937560218599305</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>299090</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>270213</v>
+        <v>271484</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>332330</v>
+        <v>333279</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3155824221583705</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2851136431485297</v>
+        <v>0.2864547337363805</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3506555093443265</v>
+        <v>0.3516565840594671</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>282</v>
@@ -4657,19 +4657,19 @@
         <v>291432</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>261470</v>
+        <v>264281</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>321648</v>
+        <v>320803</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2785588181222717</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2499195951246135</v>
+        <v>0.2526066782351233</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3074393539598423</v>
+        <v>0.3066318434837721</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>570</v>
@@ -4678,19 +4678,19 @@
         <v>590522</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>551447</v>
+        <v>547930</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>632829</v>
+        <v>629662</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2961563792817887</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2765597284368159</v>
+        <v>0.2747959506911647</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3173740575556215</v>
+        <v>0.3157857186358082</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>386886</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>355238</v>
+        <v>354396</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>415889</v>
+        <v>418964</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4082201333020922</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3748263050357841</v>
+        <v>0.373938151525418</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4388223504959753</v>
+        <v>0.4420669156157399</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>550</v>
@@ -4728,19 +4728,19 @@
         <v>581201</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>547604</v>
+        <v>548620</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>612776</v>
+        <v>612030</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5555272633450102</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5234141843671711</v>
+        <v>0.5243854215797076</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5857074724926762</v>
+        <v>0.5849946220243706</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>915</v>
@@ -4749,19 +4749,19 @@
         <v>968087</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>926650</v>
+        <v>925829</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1013255</v>
+        <v>1017661</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4855112209403949</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4647297430673267</v>
+        <v>0.4643182635715042</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5081634287915416</v>
+        <v>0.5103731333315409</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>55607</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>40836</v>
+        <v>42898</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>72526</v>
+        <v>72299</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0162613072791618</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01194191085485829</v>
+        <v>0.01254488490357313</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02120903449456533</v>
+        <v>0.0211426829177917</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>35</v>
@@ -4874,19 +4874,19 @@
         <v>36451</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>26230</v>
+        <v>25963</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>51862</v>
+        <v>50554</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01027224914762225</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007391774407423359</v>
+        <v>0.007316720969040486</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01461528160533617</v>
+        <v>0.0142467397146105</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>90</v>
@@ -4895,19 +4895,19 @@
         <v>92058</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>75916</v>
+        <v>74105</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>113122</v>
+        <v>112447</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01321138085106804</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01089489764545531</v>
+        <v>0.01063501264438638</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01623441469533745</v>
+        <v>0.01613753606303884</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>148723</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>125971</v>
+        <v>126434</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>175438</v>
+        <v>173990</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04349185039249806</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03683825574171524</v>
+        <v>0.0369736924091395</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05130397392248702</v>
+        <v>0.05088075879478358</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>97</v>
@@ -4945,19 +4945,19 @@
         <v>103957</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>86516</v>
+        <v>82238</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>127513</v>
+        <v>124179</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02929615574790501</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02438112621605774</v>
+        <v>0.02317564949067939</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03593447472264103</v>
+        <v>0.03499492804642183</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>240</v>
@@ -4966,19 +4966,19 @@
         <v>252680</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>222746</v>
+        <v>222488</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>286488</v>
+        <v>283223</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03626269627330705</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03196673431288666</v>
+        <v>0.0319298062577154</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04111446442016219</v>
+        <v>0.0406459953520166</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>781950</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>726140</v>
+        <v>733837</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>828652</v>
+        <v>833828</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2286690342700469</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2123481575632317</v>
+        <v>0.2145992136109597</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2423262371968773</v>
+        <v>0.2438400046448235</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>545</v>
@@ -5016,19 +5016,19 @@
         <v>585032</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>543288</v>
+        <v>536633</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>634120</v>
+        <v>634088</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1648685420210648</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.153104469048434</v>
+        <v>0.1512292085722982</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.178702125887247</v>
+        <v>0.1786930285778704</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1287</v>
@@ -5037,19 +5037,19 @@
         <v>1366982</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1296415</v>
+        <v>1299387</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1427717</v>
+        <v>1435829</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.196178648776737</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1860513418440459</v>
+        <v>0.1864779064955405</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2048948128160912</v>
+        <v>0.2060590007879017</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>1204982</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1148370</v>
+        <v>1146251</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1259327</v>
+        <v>1267405</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3523781768686404</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3358228277391034</v>
+        <v>0.3352031106747037</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3682705186053441</v>
+        <v>0.3706328619657047</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1101</v>
@@ -5087,19 +5087,19 @@
         <v>1185243</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1129876</v>
+        <v>1127920</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1246737</v>
+        <v>1237969</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3340146828991245</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3184115800328833</v>
+        <v>0.3178602889217009</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3513442393473639</v>
+        <v>0.3488734689255952</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2211</v>
@@ -5108,19 +5108,19 @@
         <v>2390226</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2310677</v>
+        <v>2316003</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2474685</v>
+        <v>2482209</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3430265719351665</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3316103310368719</v>
+        <v>0.3323746650132746</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.355147501645332</v>
+        <v>0.3562272319540976</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>1228309</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1171506</v>
+        <v>1172048</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1285090</v>
+        <v>1289872</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3591996311896529</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3425886799188054</v>
+        <v>0.3427469527792429</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3758045415970035</v>
+        <v>0.3772029157204006</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1513</v>
@@ -5158,19 +5158,19 @@
         <v>1637794</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1579692</v>
+        <v>1580109</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1696975</v>
+        <v>1697922</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4615483701842835</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4451745897524868</v>
+        <v>0.4452922137713912</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4782261897499411</v>
+        <v>0.4784931279286323</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2665</v>
@@ -5179,19 +5179,19 @@
         <v>2866103</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2787554</v>
+        <v>2776295</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2961100</v>
+        <v>2946944</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4113207021637214</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4000479976805386</v>
+        <v>0.3984322442612754</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4249539617883358</v>
+        <v>0.4229223704989303</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>6842</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2797</v>
+        <v>2883</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13192</v>
+        <v>13385</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01020071794180406</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004169544375967143</v>
+        <v>0.004297997648287369</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01966873991658702</v>
+        <v>0.01995580653313878</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -5544,19 +5544,19 @@
         <v>9706</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4744</v>
+        <v>4449</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18969</v>
+        <v>18495</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01448815492502947</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007081022893064204</v>
+        <v>0.006640419048024493</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02831496492127984</v>
+        <v>0.02760664655752505</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -5565,19 +5565,19 @@
         <v>16548</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9904</v>
+        <v>9636</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27332</v>
+        <v>26679</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01234318449350612</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007387077000995674</v>
+        <v>0.007187740314170834</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02038679760734336</v>
+        <v>0.01989964860577435</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>25778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17761</v>
+        <v>17329</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38613</v>
+        <v>37830</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03843220322601007</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02647959244824298</v>
+        <v>0.02583578852202112</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05756923363371976</v>
+        <v>0.05640137814068492</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -5615,19 +5615,19 @@
         <v>17611</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10389</v>
+        <v>11031</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27312</v>
+        <v>28477</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02628659833395789</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01550796567874556</v>
+        <v>0.01646603324454475</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04076790107872457</v>
+        <v>0.04250685876141845</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>42</v>
@@ -5636,19 +5636,19 @@
         <v>43388</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32430</v>
+        <v>31155</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>59508</v>
+        <v>58014</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0323629473201577</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02418956424580159</v>
+        <v>0.02323854804746129</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04438637794094374</v>
+        <v>0.04327237529472495</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>141214</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>121474</v>
+        <v>120250</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>163363</v>
+        <v>162490</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2105384448981538</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1811077683245554</v>
+        <v>0.1792827656661438</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2435606539604927</v>
+        <v>0.2422594910285538</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>133</v>
@@ -5686,19 +5686,19 @@
         <v>135657</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>113986</v>
+        <v>115314</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>155696</v>
+        <v>156377</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.202490398558323</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1701431314729897</v>
+        <v>0.1721252056687699</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2324019873871444</v>
+        <v>0.2334176078032008</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>268</v>
@@ -5707,19 +5707,19 @@
         <v>276871</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>246241</v>
+        <v>248617</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>305222</v>
+        <v>305905</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2065167717733714</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1836700235277209</v>
+        <v>0.1854423486930567</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2276636154689151</v>
+        <v>0.2281731795752955</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>278565</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>251751</v>
+        <v>255056</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>301661</v>
+        <v>305185</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4153176395770382</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.375340111217857</v>
+        <v>0.3802676808690598</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4497524790611719</v>
+        <v>0.4550068577860303</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>245</v>
@@ -5757,19 +5757,19 @@
         <v>244056</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>219508</v>
+        <v>216826</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>267177</v>
+        <v>269830</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3642938360435559</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.327651210235194</v>
+        <v>0.323647950785273</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3988048130727494</v>
+        <v>0.4027647190077548</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>516</v>
@@ -5778,19 +5778,19 @@
         <v>522621</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>487264</v>
+        <v>490739</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>562307</v>
+        <v>562175</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3898206368598426</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3634478020860885</v>
+        <v>0.3660400605020125</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4194222020749783</v>
+        <v>0.4193234565240533</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>218329</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>196305</v>
+        <v>194299</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>245496</v>
+        <v>242449</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3255109943569939</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2926751097705836</v>
+        <v>0.2896843569885308</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3660144694062532</v>
+        <v>0.3614723576811107</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>259</v>
@@ -5828,19 +5828,19 @@
         <v>262914</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>237991</v>
+        <v>237468</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>288952</v>
+        <v>288371</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3924410121391337</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3552399301534118</v>
+        <v>0.354459509503037</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4313082348781653</v>
+        <v>0.4304407386019264</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>469</v>
@@ -5849,19 +5849,19 @@
         <v>481243</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>446270</v>
+        <v>448188</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>515287</v>
+        <v>518078</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3589564595531222</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3328703807315826</v>
+        <v>0.3343014565839183</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3843499673795219</v>
+        <v>0.3864318899098588</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>10232</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5478</v>
+        <v>4971</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19171</v>
+        <v>18810</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01001807511273049</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005363683724783119</v>
+        <v>0.004867426294778422</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01876999854529824</v>
+        <v>0.01841730062747492</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -5974,19 +5974,19 @@
         <v>16920</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10005</v>
+        <v>9754</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26650</v>
+        <v>27129</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01624074700607325</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009603432372575788</v>
+        <v>0.009362804845221975</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02557979888429363</v>
+        <v>0.02603986677981029</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -5995,19 +5995,19 @@
         <v>27152</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17835</v>
+        <v>17966</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39562</v>
+        <v>39265</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01316028878100739</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008644254530498399</v>
+        <v>0.008708067441170546</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01917533768316361</v>
+        <v>0.01903127544466571</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>44487</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32021</v>
+        <v>32325</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>59952</v>
+        <v>60887</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04355759268692044</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03135192716704418</v>
+        <v>0.03164970489395567</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0586988126500971</v>
+        <v>0.05961420993942357</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -6045,19 +6045,19 @@
         <v>26913</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17925</v>
+        <v>18415</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38198</v>
+        <v>39211</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02583255259622922</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0172057966441573</v>
+        <v>0.01767552434309745</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03666476045700812</v>
+        <v>0.0376365783110684</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>67</v>
@@ -6066,19 +6066,19 @@
         <v>71400</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>56347</v>
+        <v>55759</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>89758</v>
+        <v>90170</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03460711864645055</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02731096886425785</v>
+        <v>0.02702572856127556</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04350511926878562</v>
+        <v>0.04370480587026875</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>232413</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>204686</v>
+        <v>205736</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>262236</v>
+        <v>262268</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2275557936931823</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2004081522048086</v>
+        <v>0.2014362137314074</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2567552437115743</v>
+        <v>0.2567866662645323</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>189</v>
@@ -6116,19 +6116,19 @@
         <v>198896</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>174315</v>
+        <v>174486</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>227036</v>
+        <v>226763</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1909118019275977</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1673177545035854</v>
+        <v>0.1674819515227167</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2179224036469179</v>
+        <v>0.2176604684911361</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>406</v>
@@ -6137,19 +6137,19 @@
         <v>431309</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>395494</v>
+        <v>393620</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>470866</v>
+        <v>470516</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2090519654728272</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1916928754000794</v>
+        <v>0.1907847270036379</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2282248433924388</v>
+        <v>0.228055628390281</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>489608</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>458443</v>
+        <v>456946</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>524288</v>
+        <v>520454</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4793758279776176</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4488621757139548</v>
+        <v>0.4473967516637939</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.513331087075678</v>
+        <v>0.5095768421146202</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>462</v>
@@ -6187,19 +6187,19 @@
         <v>492445</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>456802</v>
+        <v>458923</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>524637</v>
+        <v>526356</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4726780417857211</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4384649251182531</v>
+        <v>0.4405013981053749</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5035778187280643</v>
+        <v>0.5052278308726111</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>921</v>
@@ -6208,19 +6208,19 @@
         <v>982054</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>934930</v>
+        <v>933303</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1028168</v>
+        <v>1029889</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4759936995800255</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4531533470004724</v>
+        <v>0.4523646582846114</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4983451047016829</v>
+        <v>0.499179277897908</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>244605</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>217568</v>
+        <v>216727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>274634</v>
+        <v>271849</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2394927105295491</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2130212146953178</v>
+        <v>0.2121972821604715</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2688939920140931</v>
+        <v>0.2661676143010008</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>283</v>
@@ -6258,19 +6258,19 @@
         <v>306646</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>275115</v>
+        <v>277167</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>339301</v>
+        <v>339055</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2943368566843787</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2640716985717338</v>
+        <v>0.2660409979507457</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3256811192150865</v>
+        <v>0.3254450212463688</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>506</v>
@@ -6279,19 +6279,19 @@
         <v>551251</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>509045</v>
+        <v>511073</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>591257</v>
+        <v>595503</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2671869275196894</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2467303318219189</v>
+        <v>0.2477129952844921</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2865777795196323</v>
+        <v>0.288635438852623</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>8609</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3199</v>
+        <v>4009</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15502</v>
+        <v>16006</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01148786197605848</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004269371299227535</v>
+        <v>0.005349990386441984</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02068691312137277</v>
+        <v>0.02135837093775478</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -6404,19 +6404,19 @@
         <v>8234</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3167</v>
+        <v>3832</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15147</v>
+        <v>15930</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01057558300072023</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00406798453233594</v>
+        <v>0.004921585247345123</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01945534958940609</v>
+        <v>0.02046198655204582</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -6425,19 +6425,19 @@
         <v>16842</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9472</v>
+        <v>10420</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27726</v>
+        <v>27627</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01102301717239752</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006199122653518707</v>
+        <v>0.006819671552731774</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01814629030487887</v>
+        <v>0.01808144340373384</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>39903</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28234</v>
+        <v>27762</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54722</v>
+        <v>54998</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05324870234393905</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03767676395851462</v>
+        <v>0.03704633147653897</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07302346472567824</v>
+        <v>0.07339178437439643</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -6475,19 +6475,19 @@
         <v>22142</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13946</v>
+        <v>13283</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33992</v>
+        <v>33471</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02844034375896805</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01791331511469542</v>
+        <v>0.01706166441735773</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04366137588697749</v>
+        <v>0.04299171333367415</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>54</v>
@@ -6496,19 +6496,19 @@
         <v>62045</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>47119</v>
+        <v>47710</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>80245</v>
+        <v>81505</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0406077921757463</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03083847168522704</v>
+        <v>0.03122545508336568</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0525194165044477</v>
+        <v>0.05334368794117643</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>200650</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>174192</v>
+        <v>176188</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>226367</v>
+        <v>226021</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2677555182475417</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2324489130065552</v>
+        <v>0.2351117172789233</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3020725814930861</v>
+        <v>0.3016106585443185</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>173</v>
@@ -6546,19 +6546,19 @@
         <v>179700</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>156960</v>
+        <v>158127</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>205134</v>
+        <v>205419</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2308163124164082</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2016080357208029</v>
+        <v>0.2031079599786654</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2634853073714019</v>
+        <v>0.2638517870888011</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>354</v>
@@ -6567,19 +6567,19 @@
         <v>380350</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>349030</v>
+        <v>345392</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>414658</v>
+        <v>416008</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2489334272576679</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2284349498460651</v>
+        <v>0.2260539827764082</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2713878545085736</v>
+        <v>0.2722713278637599</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>322285</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>294657</v>
+        <v>296233</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>349609</v>
+        <v>350150</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4300699156734499</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3932019975014497</v>
+        <v>0.3953043458391137</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4665309631572456</v>
+        <v>0.4672536001968634</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>296</v>
@@ -6617,19 +6617,19 @@
         <v>316338</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>290236</v>
+        <v>288991</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>343819</v>
+        <v>345179</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4063226997337228</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3727951844893481</v>
+        <v>0.3711966606020585</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4416211133372089</v>
+        <v>0.4433677452626727</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>593</v>
@@ -6638,19 +6638,19 @@
         <v>638623</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>596633</v>
+        <v>595999</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>675169</v>
+        <v>676162</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4179697026581229</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3904878151913135</v>
+        <v>0.3900726468528357</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4418881257783693</v>
+        <v>0.4425382214872401</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>177931</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>155737</v>
+        <v>154019</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>206213</v>
+        <v>201788</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2374380017590109</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2078210141484913</v>
+        <v>0.2055281818246128</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2751784789264565</v>
+        <v>0.2692734304272239</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>233</v>
@@ -6688,19 +6688,19 @@
         <v>252126</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>227914</v>
+        <v>229210</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>279695</v>
+        <v>279401</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3238450610901807</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2927451962353637</v>
+        <v>0.2944107409795044</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3592568569244985</v>
+        <v>0.3588785177552468</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>401</v>
@@ -6709,19 +6709,19 @@
         <v>430057</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>394174</v>
+        <v>394622</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>465039</v>
+        <v>464624</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2814660607360654</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2579811830617801</v>
+        <v>0.2582742632072463</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3043610680770063</v>
+        <v>0.3040897442394185</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>12718</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7584</v>
+        <v>6749</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21340</v>
+        <v>20980</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01359202218578793</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008105177902114426</v>
+        <v>0.007212565184606231</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02280643148619802</v>
+        <v>0.02242092873037873</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -6834,19 +6834,19 @@
         <v>8538</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3772</v>
+        <v>3834</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16287</v>
+        <v>16666</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00822957045377359</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003636007799055428</v>
+        <v>0.003695426315095612</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01569882680666554</v>
+        <v>0.01606347348903429</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -6855,19 +6855,19 @@
         <v>21256</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13503</v>
+        <v>13588</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31309</v>
+        <v>31808</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0107725223515048</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006843087396602624</v>
+        <v>0.006886381560950442</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01586720415274917</v>
+        <v>0.01611982530101378</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>29812</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>21136</v>
+        <v>20104</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>42254</v>
+        <v>42071</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03186044645734543</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02258841650955202</v>
+        <v>0.02148485570733928</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04515634930076549</v>
+        <v>0.04496059715287856</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>23</v>
@@ -6905,19 +6905,19 @@
         <v>24438</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15411</v>
+        <v>15659</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35783</v>
+        <v>35202</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02355552102847736</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01485411369451696</v>
+        <v>0.01509312803093628</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03448985909760286</v>
+        <v>0.03393068297436164</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>53</v>
@@ -6926,19 +6926,19 @@
         <v>54251</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>41240</v>
+        <v>41304</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>70317</v>
+        <v>70114</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0274938363616996</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02089981448017566</v>
+        <v>0.02093228760018765</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03563578403844297</v>
+        <v>0.03553316426523293</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>182903</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>160296</v>
+        <v>159851</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>209501</v>
+        <v>208706</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1954681181594178</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1713078123167162</v>
+        <v>0.1708316085588744</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.223893168637337</v>
+        <v>0.2230432871764542</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>143</v>
@@ -6976,19 +6976,19 @@
         <v>148236</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>126024</v>
+        <v>128842</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>171555</v>
+        <v>173004</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1428807055277245</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1214708964204457</v>
+        <v>0.1241873935154745</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1653570519383376</v>
+        <v>0.1667537066016697</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>324</v>
@@ -6997,19 +6997,19 @@
         <v>331139</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>299349</v>
+        <v>299503</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>364381</v>
+        <v>364519</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1678184145144879</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1517075321183484</v>
+        <v>0.1517854981950252</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1846647923061214</v>
+        <v>0.1847349415281652</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>415813</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>384931</v>
+        <v>385412</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>444367</v>
+        <v>445723</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4443780707360171</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.411374134039667</v>
+        <v>0.4118882731872309</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4748933723619267</v>
+        <v>0.4763423020799639</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>397</v>
@@ -7047,19 +7047,19 @@
         <v>429741</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>398204</v>
+        <v>395466</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>460998</v>
+        <v>458149</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.414215862690861</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3838177731725049</v>
+        <v>0.3811793084544854</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4443438475543523</v>
+        <v>0.4415975872945136</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>817</v>
@@ -7068,19 +7068,19 @@
         <v>845555</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>800734</v>
+        <v>802173</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>886807</v>
+        <v>887515</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4285192164591161</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4058046019848482</v>
+        <v>0.4065338228226919</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4494255904368314</v>
+        <v>0.4497842805775205</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>294472</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>265806</v>
+        <v>263935</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>324355</v>
+        <v>322771</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3147013424614317</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2840656631202893</v>
+        <v>0.2820666942901364</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3466362889341712</v>
+        <v>0.3449436805121918</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>382</v>
@@ -7118,19 +7118,19 @@
         <v>426527</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>395293</v>
+        <v>395042</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>459137</v>
+        <v>457818</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4111183402991636</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3810125419262875</v>
+        <v>0.3807700235453904</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4425495989793385</v>
+        <v>0.441277997559373</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>668</v>
@@ -7139,19 +7139,19 @@
         <v>721000</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>678670</v>
+        <v>676543</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>766240</v>
+        <v>761016</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3653960103131916</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3439437473885663</v>
+        <v>0.3428657915164046</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3883232357646555</v>
+        <v>0.3856756280638322</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>38401</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>26968</v>
+        <v>26447</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>50875</v>
+        <v>52431</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01137072968819178</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007985499374166209</v>
+        <v>0.007831247892715172</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01506449995783424</v>
+        <v>0.01552521434245097</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>41</v>
@@ -7264,19 +7264,19 @@
         <v>43398</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>31473</v>
+        <v>31386</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>56955</v>
+        <v>58128</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01230169322295206</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008921339113020531</v>
+        <v>0.008896872650049282</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01614479292009116</v>
+        <v>0.01647722005344474</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>79</v>
@@ -7285,19 +7285,19 @@
         <v>81799</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>65431</v>
+        <v>64171</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>103779</v>
+        <v>100082</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01184636466632894</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009475942125790076</v>
+        <v>0.009293440501535952</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01502962324544578</v>
+        <v>0.01449423333672004</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>139981</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>119064</v>
+        <v>118505</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>166087</v>
+        <v>166252</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04144911743822949</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03525550466245571</v>
+        <v>0.03509006271218495</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04917924777431749</v>
+        <v>0.0492281735823303</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>86</v>
@@ -7335,19 +7335,19 @@
         <v>91104</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>72707</v>
+        <v>73467</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>111428</v>
+        <v>110891</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02582463709703127</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02060970365780167</v>
+        <v>0.02082524874383928</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03158577285999316</v>
+        <v>0.03143373390433096</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>216</v>
@@ -7356,19 +7356,19 @@
         <v>231085</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>199594</v>
+        <v>199201</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>260265</v>
+        <v>263762</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03346647462998691</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02890594828016045</v>
+        <v>0.02884896623022984</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03769249194699242</v>
+        <v>0.03819897678904947</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>757181</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>710264</v>
+        <v>709388</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>812131</v>
+        <v>810351</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2242055755167192</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2103133373884734</v>
+        <v>0.2100538954180474</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2404767486677544</v>
+        <v>0.2399495274058582</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>638</v>
@@ -7406,19 +7406,19 @@
         <v>662488</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>617536</v>
+        <v>610862</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>707186</v>
+        <v>709360</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1877916817739225</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1750492101804361</v>
+        <v>0.1731573661278774</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2004617329379444</v>
+        <v>0.2010780958690853</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1352</v>
@@ -7427,19 +7427,19 @@
         <v>1419669</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1355457</v>
+        <v>1351035</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1487142</v>
+        <v>1492816</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2056014939307486</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1963020460186458</v>
+        <v>0.1956616418068065</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2153731878149791</v>
+        <v>0.2161948502958519</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>1506272</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1450167</v>
+        <v>1449355</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1561417</v>
+        <v>1566158</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.44601581164244</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4294027659931722</v>
+        <v>0.4291624322678682</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4623446688196294</v>
+        <v>0.4637483659491048</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1400</v>
@@ -7477,19 +7477,19 @@
         <v>1482581</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1421796</v>
+        <v>1422875</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1539904</v>
+        <v>1546224</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4202584608430841</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4030281589576698</v>
+        <v>0.4033338043249493</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4365074244323801</v>
+        <v>0.43829888663214</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2847</v>
@@ -7498,19 +7498,19 @@
         <v>2988853</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2908705</v>
+        <v>2906121</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3082479</v>
+        <v>3071887</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.432856223187155</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4212488412238868</v>
+        <v>0.4208746960109419</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4464154015588827</v>
+        <v>0.4448814891729024</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>935337</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>884810</v>
+        <v>882862</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>990614</v>
+        <v>991078</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2769587657144196</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2619974398964799</v>
+        <v>0.2614206663808566</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2933266772243733</v>
+        <v>0.2934639840388975</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1157</v>
@@ -7548,19 +7548,19 @@
         <v>1248213</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1191772</v>
+        <v>1194280</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1307343</v>
+        <v>1316525</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3538235270630101</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3378244705251708</v>
+        <v>0.3385355884739605</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3705848202373231</v>
+        <v>0.3731874384283842</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2044</v>
@@ -7569,19 +7569,19 @@
         <v>2183550</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2103447</v>
+        <v>2103162</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2259979</v>
+        <v>2263929</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3162294435857805</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3046285293749607</v>
+        <v>0.3045872496219876</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3272981312186607</v>
+        <v>0.3278701208010473</v>
       </c>
     </row>
     <row r="33">
